--- a/Digital_Data_tables2.xlsx
+++ b/Digital_Data_tables2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://egarakae-my.sharepoint.com/personal/jaouadi_sspge_rak_ae/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B73BFA0-EC75-4BC6-A65E-7CDED2002E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{2B73BFA0-EC75-4BC6-A65E-7CDED2002E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4AB194E-E6E1-46D4-9063-BD96B7AA42AB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{0DF9F0AF-8F6D-4B26-A65D-F60254EE459F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0DF9F0AF-8F6D-4B26-A65D-F60254EE459F}"/>
   </bookViews>
   <sheets>
     <sheet name="Age" sheetId="2" r:id="rId1"/>
@@ -313,9 +313,6 @@
     <t>Code</t>
   </si>
   <si>
-    <t>SERVICE_AR</t>
-  </si>
-  <si>
     <t>Other أخرى</t>
   </si>
   <si>
@@ -329,6 +326,9 @@
   </si>
   <si>
     <t>Channel_AR</t>
+  </si>
+  <si>
+    <t>ARABIC</t>
   </si>
 </sst>
 </file>
@@ -473,469 +473,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -1296,25 +834,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6521DB3F-6ABB-41E9-BFD4-DE1A0C4ADB38}" name="Age_tbl" displayName="Age_tbl" ref="A1:B4" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6521DB3F-6ABB-41E9-BFD4-DE1A0C4ADB38}" name="Age_tbl" displayName="Age_tbl" ref="A1:B4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="A1:B4" xr:uid="{6521DB3F-6ABB-41E9-BFD4-DE1A0C4ADB38}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B4">
     <sortCondition ref="B4"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1A466D88-DB2B-4852-9C1A-9C300E44254D}" name="Code" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{DE91ED3E-A7BA-4630-89D1-A61CE4A94FDB}" name="Age_AR" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{1A466D88-DB2B-4852-9C1A-9C300E44254D}" name="Code" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{DE91ED3E-A7BA-4630-89D1-A61CE4A94FDB}" name="Age_AR" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DACF42C3-0E05-4EC9-A636-94D9669AA382}" name="Service_tbl" displayName="Service_tbl" ref="A1:B14" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DACF42C3-0E05-4EC9-A636-94D9669AA382}" name="Service_tbl" displayName="Service_tbl" ref="A1:B14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="A1:B14" xr:uid="{DACF42C3-0E05-4EC9-A636-94D9669AA382}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{623A9B2A-850F-4163-891F-6DC0D4835536}" name="Code" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{6EBCEFFF-0D25-4EBD-929F-A7C914839485}" name="SERVICE_AR" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{623A9B2A-850F-4163-891F-6DC0D4835536}" name="Code" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{6EBCEFFF-0D25-4EBD-929F-A7C914839485}" name="ARABIC" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1690,7 +1228,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1729,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968D2724-7289-4790-BBA1-A766A8B5A50D}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,7 +1282,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1752,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1881,7 +1419,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1927,7 +1465,7 @@
         <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1209C8E2-8A3C-4CDB-9C6E-E56644C3E506}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1981,7 +1519,7 @@
         <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Digital_Data_tables2.xlsx
+++ b/Digital_Data_tables2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://egarakae-my.sharepoint.com/personal/jaouadi_sspge_rak_ae/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kareem.b\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{2B73BFA0-EC75-4BC6-A65E-7CDED2002E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4AB194E-E6E1-46D4-9063-BD96B7AA42AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE06B84-F371-4822-B36C-DEB4E07D0A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0DF9F0AF-8F6D-4B26-A65D-F60254EE459F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{0DF9F0AF-8F6D-4B26-A65D-F60254EE459F}"/>
   </bookViews>
   <sheets>
     <sheet name="Age" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>51 وما فوق &amp; above</t>
   </si>
@@ -314,18 +314,6 @@
   </si>
   <si>
     <t>Other أخرى</t>
-  </si>
-  <si>
-    <t>Age_AR</t>
-  </si>
-  <si>
-    <t>Language_AR</t>
-  </si>
-  <si>
-    <t>Period_AR</t>
-  </si>
-  <si>
-    <t>Channel_AR</t>
   </si>
   <si>
     <t>ARABIC</t>
@@ -473,7 +461,217 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -834,25 +1032,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6521DB3F-6ABB-41E9-BFD4-DE1A0C4ADB38}" name="Age_tbl" displayName="Age_tbl" ref="A1:B4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6521DB3F-6ABB-41E9-BFD4-DE1A0C4ADB38}" name="Age_tbl" displayName="Age_tbl" ref="A1:B4" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
   <autoFilter ref="A1:B4" xr:uid="{6521DB3F-6ABB-41E9-BFD4-DE1A0C4ADB38}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B4">
     <sortCondition ref="B4"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1A466D88-DB2B-4852-9C1A-9C300E44254D}" name="Code" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{DE91ED3E-A7BA-4630-89D1-A61CE4A94FDB}" name="Age_AR" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{1A466D88-DB2B-4852-9C1A-9C300E44254D}" name="Code" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{DE91ED3E-A7BA-4630-89D1-A61CE4A94FDB}" name="ARABIC" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DACF42C3-0E05-4EC9-A636-94D9669AA382}" name="Service_tbl" displayName="Service_tbl" ref="A1:B14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DACF42C3-0E05-4EC9-A636-94D9669AA382}" name="Service_tbl" displayName="Service_tbl" ref="A1:B14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="A1:B14" xr:uid="{DACF42C3-0E05-4EC9-A636-94D9669AA382}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{623A9B2A-850F-4163-891F-6DC0D4835536}" name="Code" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{6EBCEFFF-0D25-4EBD-929F-A7C914839485}" name="ARABIC" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{623A9B2A-850F-4163-891F-6DC0D4835536}" name="Code" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{6EBCEFFF-0D25-4EBD-929F-A7C914839485}" name="ARABIC" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -863,7 +1061,7 @@
   <autoFilter ref="A1:B3" xr:uid="{BAC7A72C-8EE2-42EA-8283-538E5C690060}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1CB7F50E-C115-4E2F-A07C-08231384BF0E}" name="Code"/>
-    <tableColumn id="2" xr3:uid="{6F628215-8005-4043-AB44-E48828049F3B}" name="Language_AR"/>
+    <tableColumn id="2" xr3:uid="{6F628215-8005-4043-AB44-E48828049F3B}" name="ARABIC"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -874,7 +1072,7 @@
   <autoFilter ref="A1:B4" xr:uid="{B9A3D723-EEA1-4086-BB6E-D1C2096892AD}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{8487BE40-DA75-42D1-9F11-94E12EE701AB}" name="Code"/>
-    <tableColumn id="2" xr3:uid="{5809E96C-38CA-44B7-8696-00DCC577D6B5}" name="Period_AR"/>
+    <tableColumn id="2" xr3:uid="{5809E96C-38CA-44B7-8696-00DCC577D6B5}" name="ARABIC"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -888,7 +1086,7 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{09E3A7A7-C7CC-4AB8-BA40-7C3A4A5503AB}" name="Code"/>
-    <tableColumn id="2" xr3:uid="{D6AD1D3B-5E4B-4AFE-8241-5CDC58005839}" name="Channel_AR"/>
+    <tableColumn id="2" xr3:uid="{D6AD1D3B-5E4B-4AFE-8241-5CDC58005839}" name="ARABIC"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1214,7 +1412,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968D2724-7289-4790-BBA1-A766A8B5A50D}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1480,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1405,7 +1603,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1617,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1451,7 +1649,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1663,7 @@
         <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1209C8E2-8A3C-4CDB-9C6E-E56644C3E506}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1717,7 @@
         <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
